--- a/product_data.xlsx
+++ b/product_data.xlsx
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>Title</t>
   </si>
   <si>
-    <t>Web-url</t>
+    <t>Product URL</t>
   </si>
   <si>
     <t>Price</t>
@@ -28,13 +28,184 @@
     <t>ASIN</t>
   </si>
   <si>
-    <t>HP 24mh FHD Monitor - Computer Monitor with 23.8-Inch IPS Display (1080p) - Built-In Speakers and VESA Mounting - Height/Tilt Adjustment for Ergonomic Viewing - HDMI and DisplayPort - (1D0J9AA#ABA)</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/HP-24mh-FHD-Monitor-Built/dp/B08BF4CZSV/ref=sr_1_1?dchild=1&amp;qid=1615920276&amp;s=electronics&amp;sr=1-1</t>
-  </si>
-  <si>
-    <t>B08BF4CZSV</t>
+    <t>Acer Aspire 5 Slim Laptop, 15.6 inches Full HD IPS Display, AMD Ryzen 3 3200U, Vega 3 Graphics, 4GB DDR4, 128GB SSD, Backlit Keyboard, Windows 10 in S Mode, A515-43-R19L, Silver</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Acer-Display-Graphics-Keyboard-A515-43-R19L/dp/B07RF1XD36/ref=sr_1_1?dchild=1&amp;qid=1616069219&amp;s=computers-intl-ship&amp;sr=1-1</t>
+  </si>
+  <si>
+    <t>B07RF1XD36</t>
+  </si>
+  <si>
+    <t>ASUS Laptop L210 Ultra Thin Laptop, 11.6” HD Display, Intel Celeron N4020 Processor, 4GB RAM, 64GB Storage, NumberPad, Windows 10 Home in S Mode with One Year of Microsoft 365 Personal, L210MA-DB01</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/ASUS-Processor-NumberPad-Microsoft-L210MA-DB01/dp/B081V6W99V/ref=sr_1_2?dchild=1&amp;qid=1616069219&amp;s=computers-intl-ship&amp;sr=1-2</t>
+  </si>
+  <si>
+    <t>B081V6W99V</t>
+  </si>
+  <si>
+    <t>ASUS F512JA-AS34 VivoBook 15 Thin and Light Laptop, 15.6” FHD Display, Intel i3-1005G1 CPU, 8GB RAM, 128GB SSD, Backlit Keyboard, Fingerprint, Windows 10 Home in S Mode, Slate Gray</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/ASUS-F512JA-AS34-VivoBook-i3-1005G1-Fingerprint/dp/B0869L1326/ref=sr_1_3?dchild=1&amp;qid=1616069219&amp;s=computers-intl-ship&amp;sr=1-3</t>
+  </si>
+  <si>
+    <t>B0869L1326</t>
+  </si>
+  <si>
+    <t>Lenovo Legion 5 Gaming Laptop, 15.6" FHD (1920x1080) IPS Screen, AMD Ryzen 7 4800H Processor, 16GB DDR4, 512GB SSD, NVIDIA GTX 1660Ti, Windows 10, 82B1000AUS, Phantom Black</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Lenovo-1920x1080-Processor-Windows-82B1000AUS/dp/B08BB9RWXD/ref=sr_1_4?dchild=1&amp;qid=1616069219&amp;s=computers-intl-ship&amp;sr=1-4</t>
+  </si>
+  <si>
+    <t>B08BB9RWXD</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy Tab A7 10.4 Wi-Fi 32GB Silver (SM-T500NZSAXAR)</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Samsung-Galaxy-Wi-Fi-Silver-SM-T500NZSAXAR/dp/B08GHVSGMQ/ref=sr_1_6?dchild=1&amp;qid=1616069219&amp;s=computers-intl-ship&amp;sr=1-6</t>
+  </si>
+  <si>
+    <t>B08GHVSGMQ</t>
+  </si>
+  <si>
+    <t>Acer Chromebook Spin 311 Convertible Laptop, Intel Celeron N4020, 11.6" HD Touch, 4GB LPDDR4, 32GB eMMC, Gigabit Wi-Fi 5, Bluetooth 5.0, Google Chrome, CP311-2H-C679</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Acer-Chromebook-Convertible-Bluetooth-CP311-2H-C679/dp/B086MBQKH2/ref=sr_1_7?dchild=1&amp;qid=1616069219&amp;s=computers-intl-ship&amp;sr=1-7</t>
+  </si>
+  <si>
+    <t>B086MBQKH2</t>
+  </si>
+  <si>
+    <t>Acer Nitro 5 Gaming Laptop, 10th Gen Intel Core i5-10300H,NVIDIA GeForce GTX 1650 Ti, 15.6" Full HD IPS 144Hz Display, 8GB DDR4,256GB NVMe SSD,WiFi 6, DTS X Ultra,Backlit Keyboard,AN515-55-59KS</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Acer-i5-10300H-GeForce-Keyboard-AN515-55-59KS/dp/B08H2H89K1/ref=sr_1_8?dchild=1&amp;qid=1616069219&amp;s=computers-intl-ship&amp;sr=1-8</t>
+  </si>
+  <si>
+    <t>B08H2H89K1</t>
+  </si>
+  <si>
+    <t>Lenovo IdeaPad 3 14" Laptop, 14.0" FHD 1920 x 1080 Display, AMD Ryzen 5 3500U Processor, 8GB DDR4 RAM, 256GB SSD, AMD Radeon Vega 8 Graphics, Narrow Bezel, Windows 10, 81W0003QUS, Abyss Blue</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Lenovo-IdeaPad-Processor-Graphics-81W0003QUS/dp/B0862269YP/ref=sr_1_9?dchild=1&amp;qid=1616069219&amp;s=computers-intl-ship&amp;sr=1-9</t>
+  </si>
+  <si>
+    <t>B0862269YP</t>
+  </si>
+  <si>
+    <t>Lenovo Tab M10 Plus, 10.3" FHD Android Tablet, Octa-Core Processor, 32GB Storage, 2GB RAM, Iron Grey, ZA5T0263US</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Lenovo-Android-Octa-Core-Processor-ZA5T0263US/dp/B083JVJQH4/ref=sr_1_10?dchild=1&amp;qid=1616069219&amp;s=computers-intl-ship&amp;sr=1-10</t>
+  </si>
+  <si>
+    <t>B083JVJQH4</t>
+  </si>
+  <si>
+    <t>Acer Swift 3 Thin &amp; Light Laptop, 14" Full HD IPS, AMD Ryzen 7 4700U Octa-Core with Radeon Graphics, 8GB LPDDR4, 512GB NVMe SSD, Wi-Fi 6, Backlit KB, Fingerprint Reader, Alexa Built-in, SF314-42-R9YN</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Acer-Octa-Core-Graphics-Fingerprint-SF314-42-R9YN/dp/B086KKKT15/ref=sr_1_11?dchild=1&amp;qid=1616069219&amp;s=computers-intl-ship&amp;sr=1-11</t>
+  </si>
+  <si>
+    <t>B086KKKT15</t>
+  </si>
+  <si>
+    <t>Lenovo Chromebook C330 2-in-1 Convertible Laptop, 11.6-Inch HD (1366 x 768) IPS Display, MediaTek MT8173C Processor, 4GB LPDDR3, 64 GB eMMC, Chrome OS, 81HY0000US, Blizzard White</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Lenovo-Chromebook-Convertible-11-6-Inch-81HY0000US/dp/B07GM2J11Q/ref=sr_1_12?dchild=1&amp;qid=1616069219&amp;s=computers-intl-ship&amp;sr=1-12</t>
+  </si>
+  <si>
+    <t>B07GM2J11Q</t>
+  </si>
+  <si>
+    <t>iBUYPOWER Gaming PC Computer Desktop Element Mini 9300 (AMD Ryzen 3 3100 3.6GHz, AMD Radeon RX 550 2GB, 8GB DDR4 RAM, 240GB SSD, Wi-Fi Ready, Windows 10 Home)</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/iBUYPOWER-Computer-Element-Mini-9300/dp/B08FPNRYXN/ref=sr_1_13?dchild=1&amp;qid=1616069219&amp;s=computers-intl-ship&amp;sr=1-13</t>
+  </si>
+  <si>
+    <t>B08FPNRYXN</t>
+  </si>
+  <si>
+    <t>Acer Aspire TC-895-UA92 Desktop, 10th Gen Intel Core i5-10400 6-Core Processor, 12GB 2666MHz DDR4, 512GB NVMe M.2 SSD, 8X DVD, 802.11ax Wi-Fi 6, USB 3.2 Type C, Windows 10 Home</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Acer-TC-895-UA92-i5-10400-Processor-802-11ax/dp/B088X2YR3X/ref=sr_1_14?dchild=1&amp;qid=1616069219&amp;s=computers-intl-ship&amp;sr=1-14</t>
+  </si>
+  <si>
+    <t>B088X2YR3X</t>
+  </si>
+  <si>
+    <t>Lenovo Chromebook Flex 5 13" Laptop, FHD (1920 x 1080) Touch Display, Intel Core i3-10110U Processor, 4GB DDR4 Onboard RAM, 64GB SSD, Intel Integrated Graphics, Chrome OS, 82B80006UX, Graphite Grey</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Lenovo-Chromebook-i3-10110U-Integrated-82B80006UX/dp/B086383HC7/ref=sr_1_16?dchild=1&amp;qid=1616069219&amp;s=computers-intl-ship&amp;sr=1-16</t>
+  </si>
+  <si>
+    <t>B086383HC7</t>
+  </si>
+  <si>
+    <t>Acer Aspire 5 A515-55-56VK, 15.6" Full HD IPS Display, 10th Gen Intel Core i5-1035G1, 8GB DDR4, 256GB NVMe SSD, Intel Wireless WiFi 6 AX201, Fingerprint Reader, Backlit Keyboard, Windows 10 Home</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Acer-A515-55-56VK-i5-1035G1-Fingerprint-Keyboard/dp/B087RTV311/ref=sr_1_17?dchild=1&amp;qid=1616069219&amp;s=computers-intl-ship&amp;sr=1-17</t>
+  </si>
+  <si>
+    <t>B087RTV311</t>
+  </si>
+  <si>
+    <t>HP Chromebook x360 14-inch HD Touchscreen Laptop, Intel Celeron N4000, 4 GB RAM, 32 GB eMMC, Chrome (14b-ca0010nr, Ceramic White/Mineral Silver)</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/HP-Chromebook-14-Inch-Touchscreen-14b-ca0010nr/dp/B07VZ39199/ref=sr_1_18?dchild=1&amp;qid=1616069219&amp;s=computers-intl-ship&amp;sr=1-18</t>
+  </si>
+  <si>
+    <t>B07VZ39199</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy Tab S7 Wi-Fi, Mystic Black - 128 GB</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Samsung-Galaxy-Wi-Fi-Mystic-Black/dp/B08FBN5STQ/ref=sr_1_20?dchild=1&amp;qid=1616069219&amp;s=computers-intl-ship&amp;sr=1-20</t>
+  </si>
+  <si>
+    <t>B08FBN5STQ</t>
+  </si>
+  <si>
+    <t>Lenovo IdeaPad 3 15" Laptop, 15.6" HD (1366 x 768) Display, AMD Ryzen 3 3250U Processor, 4GB DDR4 Onboard RAM, 128GB SSD, AMD Radeon Vega 3 Graphics, Windows 10, 81W10094US, Business Black</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Lenovo-Processor-Graphics-81W10094US-Business/dp/B0872K4XCJ/ref=sr_1_21?dchild=1&amp;qid=1616069219&amp;s=computers-intl-ship&amp;sr=1-21</t>
+  </si>
+  <si>
+    <t>B0872K4XCJ</t>
+  </si>
+  <si>
+    <t>ASUS VivoBook 15 Thin &amp; Light Laptop, 15.6” FHD Display, AMD Quad Core R7-3700U CPU, 8GB DDR4 RAM, 512GB PCIe SSD, AMD Radeon Vega 10 Graphics, Fingerprint, Windows 10 Home, Slate Gray, F512DA-NH77</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/ASUS-VivoBook-R7-3700U-Fingerprint-F512DA-NH77/dp/B085344M9Q/ref=sr_1_23?dchild=1&amp;qid=1616069219&amp;s=computers-intl-ship&amp;sr=1-23</t>
+  </si>
+  <si>
+    <t>B085344M9Q</t>
+  </si>
+  <si>
+    <t>HP 14-inch Chromebook HD Touchscreen Laptop PC (Intel Celeron N3350 up to 2.4GHz, 4GB RAM, 32GB Flash Memory, WiFi, HD Camera, Bluetooth, Up to 10 hrs Battery Life, Chrome OS , Black)</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/HP-14-inch-Chromebook-Touchscreen-Bluetooth/dp/B07L52KX7B/ref=sr_1_24?dchild=1&amp;qid=1616069219&amp;s=computers-intl-ship&amp;sr=1-24</t>
+  </si>
+  <si>
+    <t>B07L52KX7B</t>
   </si>
 </sst>
 </file>
@@ -56,6 +227,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -64,6 +236,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -71,6 +259,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -79,59 +282,29 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -145,29 +318,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -176,6 +326,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -186,22 +344,36 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -216,121 +388,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -342,36 +556,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -384,19 +568,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -425,6 +597,32 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -436,6 +634,24 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -463,200 +679,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1003,31 +1176,31 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="36.2857142857143" customWidth="1"/>
-    <col min="2" max="2" width="43.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="23.8571428571429" customWidth="1"/>
-    <col min="4" max="4" width="25.8571428571429" customWidth="1"/>
+    <col min="1" max="1" width="57.8571428571429" customWidth="1"/>
+    <col min="2" max="2" width="43.8571428571429" customWidth="1"/>
+    <col min="3" max="3" width="9.14285714285714" customWidth="1"/>
+    <col min="4" max="4" width="22.8571428571429" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1039,10 +1212,276 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>164.99</v>
+        <v>364.99</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>199.99</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <v>379.99</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5">
+        <v>991.18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6">
+        <v>214.38</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7">
+        <v>265.13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8">
+        <v>722.32</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9">
+        <v>449.99</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10">
+        <v>129</v>
+      </c>
+      <c r="D10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11">
+        <v>679.99</v>
+      </c>
+      <c r="D11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12">
+        <v>282.73</v>
+      </c>
+      <c r="D12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13">
+        <v>584.99</v>
+      </c>
+      <c r="D13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14">
+        <v>549.99</v>
+      </c>
+      <c r="D14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15">
+        <v>394.52</v>
+      </c>
+      <c r="D15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16">
+        <v>549.1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17">
+        <v>249</v>
+      </c>
+      <c r="D17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18">
+        <v>529.99</v>
+      </c>
+      <c r="D18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19">
+        <v>359.99</v>
+      </c>
+      <c r="D19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20">
+        <v>649</v>
+      </c>
+      <c r="D20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21">
+        <v>264</v>
+      </c>
+      <c r="D21" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
